--- a/test_cases/TPO - TC-Template.xlsx
+++ b/test_cases/TPO - TC-Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b157b3fb1646fbfa/Work/UADE/Clases/Testing de Aplicaciones/2022 - S2/Clases/TPO/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Lucas/Documents/GitHub/TestingAplicaciones-BeSharps-TPO/test_cases/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="331" documentId="8_{6DE4BBDD-6DE3-4215-BE1C-B3F72CE6ADED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{05562300-745A-47CE-9121-57DE1FCE2AFF}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A01A5174-86E5-0344-9218-690FD9429673}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3460" yWindow="5080" windowWidth="30340" windowHeight="15870" xr2:uid="{DCE1F527-8622-40D5-806A-6A7E2BCE07A3}"/>
+    <workbookView xWindow="0" yWindow="940" windowWidth="28800" windowHeight="15880" xr2:uid="{DCE1F527-8622-40D5-806A-6A7E2BCE07A3}"/>
   </bookViews>
   <sheets>
     <sheet name="TC - Template" sheetId="1" r:id="rId1"/>
@@ -192,7 +192,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -687,6 +687,48 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="20" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="21" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="4" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -711,52 +753,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="4" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="20" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="21" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="Celda de comprobación" xfId="4" builtinId="23"/>
-    <cellStyle name="Entrada" xfId="3" builtinId="20"/>
+    <cellStyle name="Check Cell" xfId="4" builtinId="23"/>
+    <cellStyle name="Input" xfId="3" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{C558A088-66ED-4D97-B86E-4769E988BE41}"/>
     <cellStyle name="Note 2" xfId="2" xr:uid="{4BAC1941-5BF2-43E8-B9DC-8FEA0AFAB3F9}"/>
@@ -1073,28 +1073,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F3CCAC7-6C0E-44CD-ADA1-CF7A0722318C}">
   <dimension ref="A1:W30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G14" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D23" sqref="A1:E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" customWidth="1"/>
-    <col min="3" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5" customWidth="1"/>
+    <col min="3" max="4" width="13.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="6" max="6" width="2.5703125" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.28515625" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.28515625" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.28515625" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.28515625" customWidth="1"/>
+    <col min="6" max="6" width="2.5" customWidth="1"/>
+    <col min="7" max="7" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.33203125" customWidth="1"/>
+    <col min="9" max="9" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.33203125" customWidth="1"/>
+    <col min="11" max="11" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.33203125" customWidth="1"/>
+    <col min="13" max="13" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="14.45" customHeight="1">
+    <row r="1" spans="1:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1104,12 +1104,12 @@
       <c r="C1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="46" t="s">
+      <c r="D1" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="47"/>
-    </row>
-    <row r="2" spans="1:23">
+      <c r="E1" s="31"/>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
@@ -1123,7 +1123,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:23">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>8</v>
       </c>
@@ -1143,7 +1143,7 @@
       <c r="K3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:23" ht="14.45" customHeight="1">
+    <row r="4" spans="1:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F4" s="2"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -1154,7 +1154,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="1:23" ht="21">
+    <row r="5" spans="1:23" ht="24" x14ac:dyDescent="0.2">
       <c r="A5" s="29" t="s">
         <v>11</v>
       </c>
@@ -1179,8 +1179,8 @@
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
     </row>
-    <row r="6" spans="1:23" ht="14.45" customHeight="1"/>
-    <row r="7" spans="1:23">
+    <row r="6" spans="1:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7" s="19" t="s">
         <v>13</v>
       </c>
@@ -1194,7 +1194,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="14.45" customHeight="1">
+    <row r="8" spans="1:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="15">
         <v>1</v>
       </c>
@@ -1208,7 +1208,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="14.45" customHeight="1">
+    <row r="9" spans="1:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="15">
         <v>2</v>
       </c>
@@ -1220,7 +1220,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:23">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10" s="15">
         <v>3</v>
       </c>
@@ -1230,43 +1230,43 @@
       </c>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" spans="1:23">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11" s="15">
         <v>4</v>
       </c>
       <c r="B11" s="3"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="13" spans="1:23" ht="15" thickBot="1">
-      <c r="A13" s="30" t="s">
+    <row r="13" spans="1:23" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="32" t="s">
+      <c r="B13" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="34"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="48"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:23" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A14" s="31"/>
-      <c r="B14" s="35"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="37"/>
-      <c r="G14" s="43" t="s">
+    <row r="14" spans="1:23" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="45"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="51"/>
+      <c r="G14" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="H14" s="43"/>
-      <c r="I14" s="43"/>
-      <c r="J14" s="43"/>
-      <c r="K14" s="43"/>
-      <c r="L14" s="43"/>
-      <c r="M14" s="43"/>
-      <c r="N14" s="43"/>
-    </row>
-    <row r="15" spans="1:23" ht="21.95" thickTop="1" thickBot="1">
+      <c r="H14" s="42"/>
+      <c r="I14" s="42"/>
+      <c r="J14" s="42"/>
+      <c r="K14" s="42"/>
+      <c r="L14" s="42"/>
+      <c r="M14" s="42"/>
+      <c r="N14" s="42"/>
+    </row>
+    <row r="15" spans="1:23" ht="26" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="s">
         <v>22</v>
       </c>
@@ -1280,53 +1280,53 @@
       <c r="E15" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="G15" s="41" t="s">
+      <c r="G15" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="H15" s="41"/>
-      <c r="I15" s="41" t="s">
+      <c r="H15" s="40"/>
+      <c r="I15" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="J15" s="41"/>
-      <c r="K15" s="41" t="s">
+      <c r="J15" s="40"/>
+      <c r="K15" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="L15" s="41"/>
-      <c r="M15" s="41" t="s">
+      <c r="L15" s="40"/>
+      <c r="M15" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="N15" s="41"/>
-    </row>
-    <row r="16" spans="1:23" ht="15.6" thickTop="1" thickBot="1">
-      <c r="G16" s="44" t="s">
+      <c r="N15" s="40"/>
+    </row>
+    <row r="16" spans="1:23" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G16" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="H16" s="45"/>
-      <c r="I16" s="44" t="s">
+      <c r="H16" s="39"/>
+      <c r="I16" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="J16" s="45"/>
-      <c r="K16" s="44" t="s">
+      <c r="J16" s="39"/>
+      <c r="K16" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="L16" s="45"/>
-      <c r="M16" s="44" t="s">
+      <c r="L16" s="39"/>
+      <c r="M16" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="N16" s="45"/>
-    </row>
-    <row r="17" spans="1:14" ht="26.45" thickTop="1">
+      <c r="N16" s="39"/>
+    </row>
+    <row r="17" spans="1:14" ht="31" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A17" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="50" t="s">
+      <c r="B17" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="51"/>
-      <c r="D17" s="48" t="s">
+      <c r="C17" s="35"/>
+      <c r="D17" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="E17" s="49"/>
+      <c r="E17" s="33"/>
       <c r="G17" s="14" t="s">
         <v>36</v>
       </c>
@@ -1352,18 +1352,18 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="18">
         <v>1</v>
       </c>
-      <c r="B18" s="39" t="s">
+      <c r="B18" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="40"/>
-      <c r="D18" s="39" t="s">
+      <c r="C18" s="37"/>
+      <c r="D18" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="E18" s="40"/>
+      <c r="E18" s="37"/>
       <c r="G18" s="16" t="s">
         <v>40</v>
       </c>
@@ -1387,18 +1387,18 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="18">
         <v>2</v>
       </c>
-      <c r="B19" s="39" t="s">
+      <c r="B19" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="40"/>
-      <c r="D19" s="39" t="s">
+      <c r="C19" s="37"/>
+      <c r="D19" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="E19" s="40"/>
+      <c r="E19" s="37"/>
       <c r="G19" s="16" t="s">
         <v>40</v>
       </c>
@@ -1422,18 +1422,18 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="18">
         <v>3</v>
       </c>
-      <c r="B20" s="39" t="s">
+      <c r="B20" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="40"/>
-      <c r="D20" s="39" t="s">
+      <c r="C20" s="37"/>
+      <c r="D20" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="E20" s="40"/>
+      <c r="E20" s="37"/>
       <c r="G20" s="16" t="s">
         <v>40</v>
       </c>
@@ -1457,14 +1457,14 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="18">
         <v>4</v>
       </c>
-      <c r="B21" s="39"/>
-      <c r="C21" s="40"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="40"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="37"/>
       <c r="G21" s="5"/>
       <c r="H21" s="3"/>
       <c r="I21" s="5"/>
@@ -1474,12 +1474,12 @@
       <c r="M21" s="5"/>
       <c r="N21" s="3"/>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="18"/>
-      <c r="B22" s="39"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="40"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="37"/>
       <c r="G22" s="5"/>
       <c r="H22" s="3"/>
       <c r="I22" s="5"/>
@@ -1489,12 +1489,12 @@
       <c r="M22" s="5"/>
       <c r="N22" s="3"/>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="18"/>
-      <c r="B23" s="39"/>
-      <c r="C23" s="40"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="40"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="37"/>
       <c r="G23" s="5"/>
       <c r="H23" s="3"/>
       <c r="I23" s="5"/>
@@ -1504,112 +1504,78 @@
       <c r="M23" s="5"/>
       <c r="N23" s="3"/>
     </row>
-    <row r="25" spans="1:14">
-      <c r="G25" s="42" t="s">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="G25" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="H25" s="42"/>
-      <c r="I25" s="42" t="s">
+      <c r="H25" s="41"/>
+      <c r="I25" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="J25" s="42"/>
-      <c r="K25" s="42" t="s">
+      <c r="J25" s="41"/>
+      <c r="K25" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="L25" s="42"/>
-      <c r="M25" s="42" t="s">
+      <c r="L25" s="41"/>
+      <c r="M25" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="N25" s="42"/>
-    </row>
-    <row r="26" spans="1:14" ht="26.1" customHeight="1">
-      <c r="G26" s="38"/>
-      <c r="H26" s="38"/>
-      <c r="I26" s="38" t="s">
+      <c r="N25" s="41"/>
+    </row>
+    <row r="26" spans="1:14" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G26" s="43"/>
+      <c r="H26" s="43"/>
+      <c r="I26" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="J26" s="38"/>
-      <c r="K26" s="38"/>
-      <c r="L26" s="38"/>
-      <c r="M26" s="38"/>
-      <c r="N26" s="38"/>
-    </row>
-    <row r="27" spans="1:14" ht="26.1" customHeight="1">
-      <c r="G27" s="38"/>
-      <c r="H27" s="38"/>
-      <c r="I27" s="38"/>
-      <c r="J27" s="38"/>
-      <c r="K27" s="38"/>
-      <c r="L27" s="38"/>
-      <c r="M27" s="38"/>
-      <c r="N27" s="38"/>
-    </row>
-    <row r="28" spans="1:14" ht="26.1" customHeight="1">
-      <c r="G28" s="38"/>
-      <c r="H28" s="38"/>
-      <c r="I28" s="38"/>
-      <c r="J28" s="38"/>
-      <c r="K28" s="38"/>
-      <c r="L28" s="38"/>
-      <c r="M28" s="38"/>
-      <c r="N28" s="38"/>
-    </row>
-    <row r="29" spans="1:14" ht="26.1" customHeight="1">
-      <c r="G29" s="38"/>
-      <c r="H29" s="38"/>
-      <c r="I29" s="38"/>
-      <c r="J29" s="38"/>
-      <c r="K29" s="38"/>
-      <c r="L29" s="38"/>
-      <c r="M29" s="38"/>
-      <c r="N29" s="38"/>
-    </row>
-    <row r="30" spans="1:14" ht="26.1" customHeight="1">
-      <c r="G30" s="38"/>
-      <c r="H30" s="38"/>
-      <c r="I30" s="38"/>
-      <c r="J30" s="38"/>
-      <c r="K30" s="38"/>
-      <c r="L30" s="38"/>
-      <c r="M30" s="38"/>
-      <c r="N30" s="38"/>
+      <c r="J26" s="43"/>
+      <c r="K26" s="43"/>
+      <c r="L26" s="43"/>
+      <c r="M26" s="43"/>
+      <c r="N26" s="43"/>
+    </row>
+    <row r="27" spans="1:14" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G27" s="43"/>
+      <c r="H27" s="43"/>
+      <c r="I27" s="43"/>
+      <c r="J27" s="43"/>
+      <c r="K27" s="43"/>
+      <c r="L27" s="43"/>
+      <c r="M27" s="43"/>
+      <c r="N27" s="43"/>
+    </row>
+    <row r="28" spans="1:14" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G28" s="43"/>
+      <c r="H28" s="43"/>
+      <c r="I28" s="43"/>
+      <c r="J28" s="43"/>
+      <c r="K28" s="43"/>
+      <c r="L28" s="43"/>
+      <c r="M28" s="43"/>
+      <c r="N28" s="43"/>
+    </row>
+    <row r="29" spans="1:14" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G29" s="43"/>
+      <c r="H29" s="43"/>
+      <c r="I29" s="43"/>
+      <c r="J29" s="43"/>
+      <c r="K29" s="43"/>
+      <c r="L29" s="43"/>
+      <c r="M29" s="43"/>
+      <c r="N29" s="43"/>
+    </row>
+    <row r="30" spans="1:14" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G30" s="43"/>
+      <c r="H30" s="43"/>
+      <c r="I30" s="43"/>
+      <c r="J30" s="43"/>
+      <c r="K30" s="43"/>
+      <c r="L30" s="43"/>
+      <c r="M30" s="43"/>
+      <c r="N30" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="G14:N14"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="M28:N28"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="B13:E14"/>
     <mergeCell ref="K29:L29"/>
@@ -1626,6 +1592,40 @@
     <mergeCell ref="G30:H30"/>
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="B23:C23"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="G14:N14"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -1633,9 +1633,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1771,22 +1774,42 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{05B21CC3-4BA7-4DCC-938B-D8AC576180FD}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8BD47D4F-AB4F-4564-85D1-99DDD7BF287B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A03C94FE-5835-47FA-A80A-B2CEC453860B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A03C94FE-5835-47FA-A80A-B2CEC453860B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="9c71177d-84a1-4dd9-b712-f5a48054c455"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8BD47D4F-AB4F-4564-85D1-99DDD7BF287B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{05B21CC3-4BA7-4DCC-938B-D8AC576180FD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>